--- a/Breed List.xlsx
+++ b/Breed List.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mike\Dropbox (Personal)\Scenthound\CRM_Features_Research\Mytime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petgroomerie.sharepoint.com/sites/ScenthoundMyTimeimplementation/Shared Documents/Data Conversion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CE5FE-B335-4D3E-9F30-668C1525D334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{D03CE5FE-B335-4D3E-9F30-668C1525D334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FA8F80D-DD5F-4606-B0EA-314F16E6D684}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32580" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="Special" sheetId="5" r:id="rId2"/>
-    <sheet name="3" sheetId="4" r:id="rId3"/>
-    <sheet name="2" sheetId="3" r:id="rId4"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$A$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2'!$A$1:$A$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$B$189</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,29 +38,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="210">
+  <si>
+    <t>Breed</t>
+  </si>
+  <si>
+    <t>Proposed Correction (2020-07-23)</t>
+  </si>
   <si>
     <t>Affenpinscher- 2</t>
   </si>
   <si>
+    <t>Affenpinscher - 2</t>
+  </si>
+  <si>
     <t>Afghan Hound - speciality</t>
   </si>
   <si>
+    <t>Afghan Hound - specialty</t>
+  </si>
+  <si>
     <t>Airedale Terrier - 3</t>
   </si>
   <si>
     <t>Akita - speciality</t>
   </si>
   <si>
+    <t>Akita - specialty</t>
+  </si>
+  <si>
     <t>Alaskan Malamute - speciality</t>
   </si>
   <si>
+    <t>Alaskan Malamute - specialty</t>
+  </si>
+  <si>
     <t>American Eskimo Dog - 2</t>
   </si>
   <si>
     <t>Anatolian Shepherd Dog - speciality</t>
   </si>
   <si>
+    <t>Anatolian Shepherd Dog - specialty</t>
+  </si>
+  <si>
     <t>Appenzeller Sennenhunde - 3</t>
   </si>
   <si>
@@ -75,6 +97,9 @@
     <t>Barbet - - speciality</t>
   </si>
   <si>
+    <t>Barbet - specialty</t>
+  </si>
+  <si>
     <t>Basenji - 2</t>
   </si>
   <si>
@@ -93,6 +118,9 @@
     <t>Belgian Malinois/sheepdog/Tervuren - 3</t>
   </si>
   <si>
+    <t>Belgian Malinois/Sheepdog/Tervuren - 3</t>
+  </si>
+  <si>
     <t>Berger Picard - 3</t>
   </si>
   <si>
@@ -105,6 +133,9 @@
     <t>Black Russian Terrier - speciality</t>
   </si>
   <si>
+    <t>Black Russian Terrier - specialty</t>
+  </si>
+  <si>
     <t>Bloodhound - 3</t>
   </si>
   <si>
@@ -210,6 +241,9 @@
     <t>Curly-Coated Retriever - speciality</t>
   </si>
   <si>
+    <t>Curly-Coated Retriever - specialty</t>
+  </si>
+  <si>
     <t>Dalmatian - 2</t>
   </si>
   <si>
@@ -249,9 +283,15 @@
     <t>Finnish Spitz -2</t>
   </si>
   <si>
+    <t>Finnish Spitz - 2</t>
+  </si>
+  <si>
     <t>Flat-Coated Retriever -3</t>
   </si>
   <si>
+    <t>Flat-Coated Retriever - 3</t>
+  </si>
+  <si>
     <t>Fox/Rat Terrier - 2</t>
   </si>
   <si>
@@ -291,6 +331,9 @@
     <t>Greater Swiss Mountain Dog - speciality</t>
   </si>
   <si>
+    <t>Greater Swiss Mountain Dog - specialty</t>
+  </si>
+  <si>
     <t>Greyhound - 2</t>
   </si>
   <si>
@@ -315,9 +358,15 @@
     <t>Irish Water Spaniel - speciality</t>
   </si>
   <si>
+    <t>Irish Water Spaniel - specialty</t>
+  </si>
+  <si>
     <t>Irish Wolfhound - speciality</t>
   </si>
   <si>
+    <t>Irish Wolfhound - specialty</t>
+  </si>
+  <si>
     <t>Italian Greyhound/Whippet - 1</t>
   </si>
   <si>
@@ -345,6 +394,9 @@
     <t>Komondor - speciality</t>
   </si>
   <si>
+    <t>Komondor - specialty</t>
+  </si>
+  <si>
     <t>Kooikerhondje - 2</t>
   </si>
   <si>
@@ -396,9 +448,15 @@
     <t>Mini/Dachschund Long Hair - 2</t>
   </si>
   <si>
+    <t>Mini Dachshund Long Hair - 2</t>
+  </si>
+  <si>
     <t>Mini/Dachschund Short hair - 1</t>
   </si>
   <si>
+    <t>Mini Dachshund Short hair - 1</t>
+  </si>
+  <si>
     <t>Miniature Pinscher - 1</t>
   </si>
   <si>
@@ -447,6 +505,9 @@
     <t>Otterhound - speciality</t>
   </si>
   <si>
+    <t>Otterhound - specialty</t>
+  </si>
+  <si>
     <t>Papillon - 2</t>
   </si>
   <si>
@@ -564,6 +625,9 @@
     <t>Tibetan Mastiff - speciality</t>
   </si>
   <si>
+    <t>Tibetan Mastiff - specialty</t>
+  </si>
+  <si>
     <t>Tibetan Spaniel - 2</t>
   </si>
   <si>
@@ -579,6 +643,9 @@
     <t>Welsh Corgie - 2</t>
   </si>
   <si>
+    <t>Welsh Corgi - 2</t>
+  </si>
+  <si>
     <t>Welsh Springer Spaniel - 2</t>
   </si>
   <si>
@@ -601,16 +668,13 @@
   </si>
   <si>
     <t>Yorkshire Terrier/Yorkie - 2</t>
-  </si>
-  <si>
-    <t>Breed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -620,11 +684,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -653,10 +732,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,29 +957,36 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z189"/>
+  <dimension ref="A1:V189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1">
-        <f>47+97+14</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="14.1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -918,16 +1007,14 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -948,16 +1035,11 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -978,16 +1060,14 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="14.1">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1008,16 +1088,14 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="14.1">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1038,16 +1116,11 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="14.1">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1068,16 +1141,14 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
+    </row>
+    <row r="8" spans="1:22" ht="14.1">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1098,16 +1169,11 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
+    </row>
+    <row r="9" spans="1:22" ht="14.1">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1128,16 +1194,11 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.1">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1158,16 +1219,11 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="14.1">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1188,16 +1244,11 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="14.1">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1218,16 +1269,14 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.1">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1248,16 +1297,11 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
+    </row>
+    <row r="14" spans="1:22" ht="14.1">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1278,16 +1322,11 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
+    </row>
+    <row r="15" spans="1:22" ht="14.1">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1308,16 +1347,11 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
+    </row>
+    <row r="16" spans="1:22" ht="14.1">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1338,16 +1372,11 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
+    </row>
+    <row r="17" spans="1:22" ht="14.1">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1368,16 +1397,11 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
+    </row>
+    <row r="18" spans="1:22" ht="14.1">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1398,16 +1422,14 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2"/>
+    </row>
+    <row r="19" spans="1:22" ht="14.1">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1428,16 +1450,11 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2"/>
+    </row>
+    <row r="20" spans="1:22" ht="14.1">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1458,16 +1475,11 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2"/>
+    </row>
+    <row r="21" spans="1:22" ht="14.1">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1488,16 +1500,11 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2"/>
+    </row>
+    <row r="22" spans="1:22" ht="14.1">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1518,16 +1525,14 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2"/>
+    </row>
+    <row r="23" spans="1:22" ht="14.1">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1548,16 +1553,11 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2"/>
+    </row>
+    <row r="24" spans="1:22" ht="14.1">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1578,16 +1578,11 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2"/>
+    </row>
+    <row r="25" spans="1:22" ht="14.1">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1608,16 +1603,11 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
+    </row>
+    <row r="26" spans="1:22" ht="14.1">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1638,16 +1628,11 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2"/>
+    </row>
+    <row r="27" spans="1:22" ht="14.1">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1668,16 +1653,11 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2"/>
+    </row>
+    <row r="28" spans="1:22" ht="14.1">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1698,16 +1678,11 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2"/>
+    </row>
+    <row r="29" spans="1:22" ht="14.1">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1728,16 +1703,11 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2"/>
+    </row>
+    <row r="30" spans="1:22" ht="14.1">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1758,16 +1728,11 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2"/>
+    </row>
+    <row r="31" spans="1:22" ht="14.1">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1788,16 +1753,11 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2"/>
+    </row>
+    <row r="32" spans="1:22" ht="14.1">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1818,16 +1778,11 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2"/>
+    </row>
+    <row r="33" spans="1:22" ht="14.1">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1848,16 +1803,11 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-    </row>
-    <row r="34" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2"/>
+    </row>
+    <row r="34" spans="1:22" ht="14.1">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1878,16 +1828,11 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-    </row>
-    <row r="35" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2"/>
+    </row>
+    <row r="35" spans="1:22" ht="14.1">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1908,16 +1853,11 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2"/>
+    </row>
+    <row r="36" spans="1:22" ht="14.1">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1938,16 +1878,11 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2"/>
+    </row>
+    <row r="37" spans="1:22" ht="14.1">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1968,16 +1903,11 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2"/>
+    </row>
+    <row r="38" spans="1:22" ht="14.1">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1998,16 +1928,11 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2"/>
+    </row>
+    <row r="39" spans="1:22" ht="14.1">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2028,16 +1953,11 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2"/>
+    </row>
+    <row r="40" spans="1:22" ht="14.1">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2058,16 +1978,11 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2"/>
+    </row>
+    <row r="41" spans="1:22" ht="14.1">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2088,16 +2003,11 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2"/>
+    </row>
+    <row r="42" spans="1:22" ht="14.1">
+      <c r="A42" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2118,16 +2028,11 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2"/>
+    </row>
+    <row r="43" spans="1:22" ht="14.1">
+      <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2148,16 +2053,11 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2"/>
+    </row>
+    <row r="44" spans="1:22" ht="14.1">
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2178,16 +2078,11 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2"/>
+    </row>
+    <row r="45" spans="1:22" ht="14.1">
+      <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2208,16 +2103,11 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2"/>
+    </row>
+    <row r="46" spans="1:22" ht="14.1">
+      <c r="A46" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2238,16 +2128,11 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2"/>
+    </row>
+    <row r="47" spans="1:22" ht="14.1">
+      <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2268,16 +2153,11 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2"/>
+    </row>
+    <row r="48" spans="1:22" ht="14.1">
+      <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2298,16 +2178,11 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2"/>
+    </row>
+    <row r="49" spans="1:22" ht="14.1">
+      <c r="A49" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2328,16 +2203,11 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-    </row>
-    <row r="50" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2"/>
+    </row>
+    <row r="50" spans="1:22" ht="14.1">
+      <c r="A50" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2358,16 +2228,11 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2"/>
+    </row>
+    <row r="51" spans="1:22" ht="14.1">
+      <c r="A51" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2388,16 +2253,11 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2"/>
+    </row>
+    <row r="52" spans="1:22" ht="14.1">
+      <c r="A52" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2418,16 +2278,11 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2"/>
+    </row>
+    <row r="53" spans="1:22" ht="14.1">
+      <c r="A53" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2448,16 +2303,11 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2"/>
+    </row>
+    <row r="54" spans="1:22" ht="14.1">
+      <c r="A54" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2478,16 +2328,11 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2"/>
+    </row>
+    <row r="55" spans="1:22" ht="14.1">
+      <c r="A55" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2508,16 +2353,11 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-    </row>
-    <row r="56" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2"/>
+    </row>
+    <row r="56" spans="1:22" ht="14.1">
+      <c r="A56" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2538,16 +2378,11 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2"/>
+    </row>
+    <row r="57" spans="1:22" ht="14.1">
+      <c r="A57" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2568,16 +2403,14 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2"/>
+    </row>
+    <row r="58" spans="1:22" ht="14.1">
+      <c r="A58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2598,16 +2431,11 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2"/>
+    </row>
+    <row r="59" spans="1:22" ht="14.1">
+      <c r="A59" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2628,16 +2456,11 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2"/>
+    </row>
+    <row r="60" spans="1:22" ht="14.1">
+      <c r="A60" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2658,16 +2481,11 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-    </row>
-    <row r="61" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2"/>
+    </row>
+    <row r="61" spans="1:22" ht="14.1">
+      <c r="A61" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2688,16 +2506,11 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2"/>
+    </row>
+    <row r="62" spans="1:22" ht="14.1">
+      <c r="A62" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2718,16 +2531,11 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-    </row>
-    <row r="63" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2"/>
+    </row>
+    <row r="63" spans="1:22" ht="14.1">
+      <c r="A63" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2748,16 +2556,11 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-    </row>
-    <row r="64" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2"/>
+    </row>
+    <row r="64" spans="1:22" ht="14.1">
+      <c r="A64" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2778,16 +2581,11 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2"/>
+    </row>
+    <row r="65" spans="1:22" ht="14.1">
+      <c r="A65" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2808,16 +2606,11 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2"/>
+    </row>
+    <row r="66" spans="1:22" ht="14.1">
+      <c r="A66" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2838,16 +2631,11 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2"/>
+    </row>
+    <row r="67" spans="1:22" ht="14.1">
+      <c r="A67" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2868,16 +2656,11 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-    </row>
-    <row r="68" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2"/>
+    </row>
+    <row r="68" spans="1:22" ht="14.1">
+      <c r="A68" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2898,16 +2681,11 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
-    </row>
-    <row r="69" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2"/>
+    </row>
+    <row r="69" spans="1:22" ht="14.1">
+      <c r="A69" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2928,16 +2706,11 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-    </row>
-    <row r="70" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2"/>
+    </row>
+    <row r="70" spans="1:22" ht="14.1">
+      <c r="A70" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2958,16 +2731,14 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-    </row>
-    <row r="71" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2"/>
+    </row>
+    <row r="71" spans="1:22" ht="14.1">
+      <c r="A71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2988,16 +2759,14 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
-    </row>
-    <row r="72" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2"/>
+    </row>
+    <row r="72" spans="1:22" ht="14.1">
+      <c r="A72" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3018,16 +2787,11 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
-    </row>
-    <row r="73" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2"/>
+    </row>
+    <row r="73" spans="1:22" ht="14.1">
+      <c r="A73" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3048,16 +2812,11 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-    </row>
-    <row r="74" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2"/>
+    </row>
+    <row r="74" spans="1:22" ht="14.1">
+      <c r="A74" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3078,16 +2837,11 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-    </row>
-    <row r="75" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2"/>
+    </row>
+    <row r="75" spans="1:22" ht="14.1">
+      <c r="A75" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3108,16 +2862,11 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-    </row>
-    <row r="76" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2"/>
+    </row>
+    <row r="76" spans="1:22" ht="14.1">
+      <c r="A76" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3138,16 +2887,11 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-    </row>
-    <row r="77" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2"/>
+    </row>
+    <row r="77" spans="1:22" ht="14.1">
+      <c r="A77" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3168,16 +2912,11 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-    </row>
-    <row r="78" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2"/>
+    </row>
+    <row r="78" spans="1:22" ht="14.1">
+      <c r="A78" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3198,16 +2937,11 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-    </row>
-    <row r="79" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2"/>
+    </row>
+    <row r="79" spans="1:22" ht="14.1">
+      <c r="A79" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -3228,16 +2962,11 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-    </row>
-    <row r="80" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2"/>
+    </row>
+    <row r="80" spans="1:22" ht="14.1">
+      <c r="A80" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3258,16 +2987,11 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-    </row>
-    <row r="81" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2"/>
+    </row>
+    <row r="81" spans="1:22" ht="14.1">
+      <c r="A81" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3288,16 +3012,11 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-    </row>
-    <row r="82" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2"/>
+    </row>
+    <row r="82" spans="1:22" ht="14.1">
+      <c r="A82" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3318,16 +3037,11 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-    </row>
-    <row r="83" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2"/>
+    </row>
+    <row r="83" spans="1:22" ht="14.1">
+      <c r="A83" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3348,16 +3062,11 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2"/>
+    </row>
+    <row r="84" spans="1:22" ht="14.1">
+      <c r="A84" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3378,16 +3087,14 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-    </row>
-    <row r="85" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2"/>
+    </row>
+    <row r="85" spans="1:22" ht="14.1">
+      <c r="A85" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3408,16 +3115,11 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
-    </row>
-    <row r="86" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2"/>
+    </row>
+    <row r="86" spans="1:22" ht="14.1">
+      <c r="A86" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3438,16 +3140,11 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
-    </row>
-    <row r="87" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2"/>
+    </row>
+    <row r="87" spans="1:22" ht="14.1">
+      <c r="A87" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3468,16 +3165,11 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
-    </row>
-    <row r="88" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2"/>
+    </row>
+    <row r="88" spans="1:22" ht="14.1">
+      <c r="A88" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3498,16 +3190,11 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-    </row>
-    <row r="89" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2"/>
+    </row>
+    <row r="89" spans="1:22" ht="14.1">
+      <c r="A89" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -3528,16 +3215,11 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2"/>
+    </row>
+    <row r="90" spans="1:22" ht="14.1">
+      <c r="A90" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3558,16 +3240,11 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
-    </row>
-    <row r="91" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2"/>
+    </row>
+    <row r="91" spans="1:22" ht="14.1">
+      <c r="A91" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3588,16 +3265,11 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2"/>
+    </row>
+    <row r="92" spans="1:22" ht="14.1">
+      <c r="A92" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -3618,16 +3290,14 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-    </row>
-    <row r="93" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2"/>
+    </row>
+    <row r="93" spans="1:22" ht="14.1">
+      <c r="A93" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -3648,16 +3318,14 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2"/>
+    </row>
+    <row r="94" spans="1:22" ht="14.1">
+      <c r="A94" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -3678,16 +3346,11 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
-    </row>
-    <row r="95" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2"/>
+    </row>
+    <row r="95" spans="1:22" ht="14.1">
+      <c r="A95" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3708,16 +3371,11 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
-    </row>
-    <row r="96" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2"/>
+    </row>
+    <row r="96" spans="1:22" ht="14.1">
+      <c r="A96" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -3738,16 +3396,11 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-    </row>
-    <row r="97" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2"/>
+    </row>
+    <row r="97" spans="1:22" ht="14.1">
+      <c r="A97" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -3768,16 +3421,11 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-    </row>
-    <row r="98" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2"/>
+    </row>
+    <row r="98" spans="1:22" ht="14.1">
+      <c r="A98" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -3798,16 +3446,11 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
-    </row>
-    <row r="99" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2"/>
+    </row>
+    <row r="99" spans="1:22" ht="14.1">
+      <c r="A99" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3828,16 +3471,11 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-    </row>
-    <row r="100" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2"/>
+    </row>
+    <row r="100" spans="1:22" ht="14.1">
+      <c r="A100" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3858,16 +3496,11 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-    </row>
-    <row r="101" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2"/>
+    </row>
+    <row r="101" spans="1:22" ht="14.1">
+      <c r="A101" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3888,16 +3521,11 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-    </row>
-    <row r="102" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2"/>
+    </row>
+    <row r="102" spans="1:22" ht="14.1">
+      <c r="A102" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3918,16 +3546,14 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
-    </row>
-    <row r="103" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2"/>
+    </row>
+    <row r="103" spans="1:22" ht="14.1">
+      <c r="A103" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3948,16 +3574,11 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
-      <c r="Z103" s="2"/>
-    </row>
-    <row r="104" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2"/>
+    </row>
+    <row r="104" spans="1:22" ht="14.1">
+      <c r="A104" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3978,16 +3599,11 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
-    </row>
-    <row r="105" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2"/>
+    </row>
+    <row r="105" spans="1:22" ht="14.1">
+      <c r="A105" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4008,16 +3624,11 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
-    </row>
-    <row r="106" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2"/>
+    </row>
+    <row r="106" spans="1:22" ht="14.1">
+      <c r="A106" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4038,16 +3649,11 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
-    </row>
-    <row r="107" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="2"/>
+    </row>
+    <row r="107" spans="1:22" ht="14.1">
+      <c r="A107" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4068,16 +3674,11 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
-    </row>
-    <row r="108" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2"/>
+    </row>
+    <row r="108" spans="1:22" ht="14.1">
+      <c r="A108" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4098,16 +3699,11 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
-    </row>
-    <row r="109" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" s="2"/>
+    </row>
+    <row r="109" spans="1:22" ht="14.1">
+      <c r="A109" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4128,16 +3724,11 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
-    </row>
-    <row r="110" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2"/>
+    </row>
+    <row r="110" spans="1:22" ht="14.1">
+      <c r="A110" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -4158,16 +3749,11 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
-    </row>
-    <row r="111" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2"/>
+    </row>
+    <row r="111" spans="1:22" ht="14.1">
+      <c r="A111" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4188,16 +3774,11 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
-    </row>
-    <row r="112" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" s="2"/>
+    </row>
+    <row r="112" spans="1:22" ht="14.1">
+      <c r="A112" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -4218,16 +3799,11 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-    </row>
-    <row r="113" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="2"/>
+    </row>
+    <row r="113" spans="1:22" ht="14.1">
+      <c r="A113" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4248,16 +3824,11 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
-    </row>
-    <row r="114" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2"/>
+    </row>
+    <row r="114" spans="1:22" ht="14.1">
+      <c r="A114" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4278,16 +3849,11 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-    </row>
-    <row r="115" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="2"/>
+    </row>
+    <row r="115" spans="1:22" ht="14.1">
+      <c r="A115" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4308,16 +3874,11 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
-    </row>
-    <row r="116" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" s="2"/>
+    </row>
+    <row r="116" spans="1:22" ht="14.1">
+      <c r="A116" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -4338,16 +3899,11 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
-    </row>
-    <row r="117" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" s="2"/>
+    </row>
+    <row r="117" spans="1:22" ht="14.1">
+      <c r="A117" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -4368,16 +3924,11 @@
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
-    </row>
-    <row r="118" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" s="2"/>
+    </row>
+    <row r="118" spans="1:22" ht="14.1">
+      <c r="A118" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -4398,16 +3949,11 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
-    </row>
-    <row r="119" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2"/>
+    </row>
+    <row r="119" spans="1:22" ht="14.1">
+      <c r="A119" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -4428,16 +3974,14 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
-    </row>
-    <row r="120" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2"/>
+    </row>
+    <row r="120" spans="1:22" ht="14.1">
+      <c r="A120" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -4458,16 +4002,14 @@
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
-      <c r="W120" s="2"/>
-      <c r="X120" s="2"/>
-      <c r="Y120" s="2"/>
-      <c r="Z120" s="2"/>
-    </row>
-    <row r="121" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2"/>
+    </row>
+    <row r="121" spans="1:22" ht="14.1">
+      <c r="A121" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -4488,16 +4030,11 @@
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
-    </row>
-    <row r="122" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="2"/>
+    </row>
+    <row r="122" spans="1:22" ht="14.1">
+      <c r="A122" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -4518,16 +4055,11 @@
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
-      <c r="W122" s="2"/>
-      <c r="X122" s="2"/>
-      <c r="Y122" s="2"/>
-      <c r="Z122" s="2"/>
-    </row>
-    <row r="123" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" s="2"/>
+    </row>
+    <row r="123" spans="1:22" ht="14.1">
+      <c r="A123" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -4548,16 +4080,11 @@
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
-      <c r="Z123" s="2"/>
-    </row>
-    <row r="124" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" s="2"/>
+    </row>
+    <row r="124" spans="1:22" ht="14.1">
+      <c r="A124" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -4578,16 +4105,11 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
-    </row>
-    <row r="125" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2"/>
+    </row>
+    <row r="125" spans="1:22" ht="14.1">
+      <c r="A125" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4608,16 +4130,11 @@
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
-      <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-      <c r="Z125" s="2"/>
-    </row>
-    <row r="126" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" s="2"/>
+    </row>
+    <row r="126" spans="1:22" ht="14.1">
+      <c r="A126" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -4638,16 +4155,11 @@
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
-    </row>
-    <row r="127" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" s="2"/>
+    </row>
+    <row r="127" spans="1:22" ht="14.1">
+      <c r="A127" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -4668,16 +4180,11 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
-    </row>
-    <row r="128" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" s="2"/>
+    </row>
+    <row r="128" spans="1:22" ht="14.1">
+      <c r="A128" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -4698,16 +4205,11 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
-    </row>
-    <row r="129" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" s="2"/>
+    </row>
+    <row r="129" spans="1:22" ht="14.1">
+      <c r="A129" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -4728,16 +4230,11 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
-    </row>
-    <row r="130" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" s="2"/>
+    </row>
+    <row r="130" spans="1:22" ht="14.1">
+      <c r="A130" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -4758,16 +4255,11 @@
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-      <c r="Z130" s="2"/>
-    </row>
-    <row r="131" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" s="2"/>
+    </row>
+    <row r="131" spans="1:22" ht="14.1">
+      <c r="A131" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -4788,16 +4280,11 @@
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
-    </row>
-    <row r="132" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" s="2"/>
+    </row>
+    <row r="132" spans="1:22" ht="14.1">
+      <c r="A132" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -4818,16 +4305,11 @@
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
-      <c r="W132" s="2"/>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-      <c r="Z132" s="2"/>
-    </row>
-    <row r="133" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133" s="2"/>
+    </row>
+    <row r="133" spans="1:22" ht="14.1">
+      <c r="A133" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -4848,16 +4330,11 @@
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
-      <c r="Z133" s="2"/>
-    </row>
-    <row r="134" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" s="2"/>
+    </row>
+    <row r="134" spans="1:22" ht="14.1">
+      <c r="A134" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -4878,16 +4355,11 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
-      <c r="W134" s="2"/>
-      <c r="X134" s="2"/>
-      <c r="Y134" s="2"/>
-      <c r="Z134" s="2"/>
-    </row>
-    <row r="135" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135" s="2"/>
+    </row>
+    <row r="135" spans="1:22" ht="14.1">
+      <c r="A135" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -4908,16 +4380,11 @@
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
-      <c r="W135" s="2"/>
-      <c r="X135" s="2"/>
-      <c r="Y135" s="2"/>
-      <c r="Z135" s="2"/>
-    </row>
-    <row r="136" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136" s="2"/>
+    </row>
+    <row r="136" spans="1:22" ht="14.1">
+      <c r="A136" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -4938,16 +4405,14 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
-      <c r="W136" s="2"/>
-      <c r="X136" s="2"/>
-      <c r="Y136" s="2"/>
-      <c r="Z136" s="2"/>
-    </row>
-    <row r="137" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137" s="2"/>
+    </row>
+    <row r="137" spans="1:22" ht="14.1">
+      <c r="A137" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -4968,16 +4433,11 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
-      <c r="W137" s="2"/>
-      <c r="X137" s="2"/>
-      <c r="Y137" s="2"/>
-      <c r="Z137" s="2"/>
-    </row>
-    <row r="138" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" s="2"/>
+    </row>
+    <row r="138" spans="1:22" ht="14.1">
+      <c r="A138" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -4998,16 +4458,11 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
-      <c r="W138" s="2"/>
-      <c r="X138" s="2"/>
-      <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
-    </row>
-    <row r="139" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" s="2"/>
+    </row>
+    <row r="139" spans="1:22" ht="14.1">
+      <c r="A139" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -5028,16 +4483,11 @@
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
-      <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
-    </row>
-    <row r="140" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" s="2"/>
+    </row>
+    <row r="140" spans="1:22" ht="14.1">
+      <c r="A140" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -5058,16 +4508,11 @@
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
-      <c r="W140" s="2"/>
-      <c r="X140" s="2"/>
-      <c r="Y140" s="2"/>
-      <c r="Z140" s="2"/>
-    </row>
-    <row r="141" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" s="2"/>
+    </row>
+    <row r="141" spans="1:22" ht="14.1">
+      <c r="A141" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -5088,16 +4533,11 @@
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
-      <c r="W141" s="2"/>
-      <c r="X141" s="2"/>
-      <c r="Y141" s="2"/>
-      <c r="Z141" s="2"/>
-    </row>
-    <row r="142" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142" s="2"/>
+    </row>
+    <row r="142" spans="1:22" ht="14.1">
+      <c r="A142" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -5118,16 +4558,11 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
-      <c r="W142" s="2"/>
-      <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
-      <c r="Z142" s="2"/>
-    </row>
-    <row r="143" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B143" s="2"/>
+    </row>
+    <row r="143" spans="1:22" ht="14.1">
+      <c r="A143" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -5148,16 +4583,11 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
-      <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
-      <c r="Z143" s="2"/>
-    </row>
-    <row r="144" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144" s="2"/>
+    </row>
+    <row r="144" spans="1:22" ht="14.1">
+      <c r="A144" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -5178,16 +4608,11 @@
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
-      <c r="W144" s="2"/>
-      <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
-    </row>
-    <row r="145" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2"/>
+    </row>
+    <row r="145" spans="1:22" ht="14.1">
+      <c r="A145" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -5208,16 +4633,11 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
-      <c r="W145" s="2"/>
-      <c r="X145" s="2"/>
-      <c r="Y145" s="2"/>
-      <c r="Z145" s="2"/>
-    </row>
-    <row r="146" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" s="2"/>
+    </row>
+    <row r="146" spans="1:22" ht="14.1">
+      <c r="A146" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -5238,16 +4658,11 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
-      <c r="W146" s="2"/>
-      <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
-      <c r="Z146" s="2"/>
-    </row>
-    <row r="147" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147" s="2"/>
+    </row>
+    <row r="147" spans="1:22" ht="14.1">
+      <c r="A147" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5268,16 +4683,11 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
-    </row>
-    <row r="148" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" s="2"/>
+    </row>
+    <row r="148" spans="1:22" ht="14.1">
+      <c r="A148" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -5298,16 +4708,11 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
-      <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
-    </row>
-    <row r="149" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" s="2"/>
+    </row>
+    <row r="149" spans="1:22" ht="14.1">
+      <c r="A149" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -5328,16 +4733,11 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
-      <c r="W149" s="2"/>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
-    </row>
-    <row r="150" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" s="2"/>
+    </row>
+    <row r="150" spans="1:22" ht="14.1">
+      <c r="A150" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -5358,16 +4758,11 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
-      <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-      <c r="Z150" s="2"/>
-    </row>
-    <row r="151" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" s="2"/>
+    </row>
+    <row r="151" spans="1:22" ht="14.1">
+      <c r="A151" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -5388,16 +4783,11 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
-      <c r="X151" s="2"/>
-      <c r="Y151" s="2"/>
-      <c r="Z151" s="2"/>
-    </row>
-    <row r="152" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152" s="2"/>
+    </row>
+    <row r="152" spans="1:22" ht="14.1">
+      <c r="A152" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -5418,16 +4808,11 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
-      <c r="W152" s="2"/>
-      <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-      <c r="Z152" s="2"/>
-    </row>
-    <row r="153" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" s="2"/>
+    </row>
+    <row r="153" spans="1:22" ht="14.1">
+      <c r="A153" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -5448,16 +4833,11 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
-      <c r="W153" s="2"/>
-      <c r="X153" s="2"/>
-      <c r="Y153" s="2"/>
-      <c r="Z153" s="2"/>
-    </row>
-    <row r="154" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" s="2"/>
+    </row>
+    <row r="154" spans="1:22" ht="14.1">
+      <c r="A154" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -5478,16 +4858,11 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
-      <c r="W154" s="2"/>
-      <c r="X154" s="2"/>
-      <c r="Y154" s="2"/>
-      <c r="Z154" s="2"/>
-    </row>
-    <row r="155" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B155" s="2"/>
+    </row>
+    <row r="155" spans="1:22" ht="14.1">
+      <c r="A155" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -5508,16 +4883,11 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-      <c r="Z155" s="2"/>
-    </row>
-    <row r="156" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" s="2"/>
+    </row>
+    <row r="156" spans="1:22" ht="14.1">
+      <c r="A156" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -5538,16 +4908,11 @@
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
-      <c r="W156" s="2"/>
-      <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
-    </row>
-    <row r="157" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B157" s="2"/>
+    </row>
+    <row r="157" spans="1:22" ht="14.1">
+      <c r="A157" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -5568,16 +4933,11 @@
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
-      <c r="Z157" s="2"/>
-    </row>
-    <row r="158" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" s="2"/>
+    </row>
+    <row r="158" spans="1:22" ht="14.1">
+      <c r="A158" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -5598,16 +4958,11 @@
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
-    </row>
-    <row r="159" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" s="2"/>
+    </row>
+    <row r="159" spans="1:22" ht="14.1">
+      <c r="A159" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -5628,16 +4983,11 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
-    </row>
-    <row r="160" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" s="2"/>
+    </row>
+    <row r="160" spans="1:22" ht="14.1">
+      <c r="A160" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -5658,16 +5008,11 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
-      <c r="X160" s="2"/>
-      <c r="Y160" s="2"/>
-      <c r="Z160" s="2"/>
-    </row>
-    <row r="161" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161" s="2"/>
+    </row>
+    <row r="161" spans="1:22" ht="14.1">
+      <c r="A161" s="3" t="s">
+        <v>179</v>
+      </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -5688,16 +5033,11 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
-      <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
-    </row>
-    <row r="162" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162" s="2"/>
+    </row>
+    <row r="162" spans="1:22" ht="14.1">
+      <c r="A162" s="3" t="s">
+        <v>180</v>
+      </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -5718,16 +5058,11 @@
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
-    </row>
-    <row r="163" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163" s="2"/>
+    </row>
+    <row r="163" spans="1:22" ht="14.1">
+      <c r="A163" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -5748,16 +5083,11 @@
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
-      <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
-      <c r="Z163" s="2"/>
-    </row>
-    <row r="164" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B164" s="2"/>
+    </row>
+    <row r="164" spans="1:22" ht="14.1">
+      <c r="A164" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -5778,16 +5108,11 @@
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
-      <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
-    </row>
-    <row r="165" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B165" s="2"/>
+    </row>
+    <row r="165" spans="1:22" ht="14.1">
+      <c r="A165" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -5808,16 +5133,11 @@
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
-      <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
-      <c r="Z165" s="2"/>
-    </row>
-    <row r="166" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B166" s="2"/>
+    </row>
+    <row r="166" spans="1:22" ht="14.1">
+      <c r="A166" s="3" t="s">
+        <v>184</v>
+      </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -5838,16 +5158,11 @@
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
-      <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
-      <c r="Z166" s="2"/>
-    </row>
-    <row r="167" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" s="2"/>
+    </row>
+    <row r="167" spans="1:22" ht="14.1">
+      <c r="A167" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -5868,16 +5183,11 @@
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
-      <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
-    </row>
-    <row r="168" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B168" s="2"/>
+    </row>
+    <row r="168" spans="1:22" ht="14.1">
+      <c r="A168" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -5898,16 +5208,11 @@
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
-    </row>
-    <row r="169" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B169" s="2"/>
+    </row>
+    <row r="169" spans="1:22" ht="14.1">
+      <c r="A169" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -5928,16 +5233,11 @@
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
-      <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
-      <c r="Z169" s="2"/>
-    </row>
-    <row r="170" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B170" s="2"/>
+    </row>
+    <row r="170" spans="1:22" ht="14.1">
+      <c r="A170" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -5958,16 +5258,11 @@
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
       <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
-    </row>
-    <row r="171" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B171" s="2"/>
+    </row>
+    <row r="171" spans="1:22" ht="14.1">
+      <c r="A171" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -5988,16 +5283,11 @@
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-    </row>
-    <row r="172" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B172" s="2"/>
+    </row>
+    <row r="172" spans="1:22" ht="14.1">
+      <c r="A172" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6018,16 +5308,11 @@
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-    </row>
-    <row r="173" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B173" s="2"/>
+    </row>
+    <row r="173" spans="1:22" ht="14.1">
+      <c r="A173" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6048,16 +5333,11 @@
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
-    </row>
-    <row r="174" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174" s="2"/>
+    </row>
+    <row r="174" spans="1:22" ht="14.1">
+      <c r="A174" s="3" t="s">
+        <v>192</v>
+      </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6078,16 +5358,11 @@
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
-      <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
-    </row>
-    <row r="175" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B175" s="2"/>
+    </row>
+    <row r="175" spans="1:22" ht="14.1">
+      <c r="A175" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6108,16 +5383,14 @@
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
-      <c r="W175" s="2"/>
-      <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
-      <c r="Z175" s="2"/>
-    </row>
-    <row r="176" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B176" s="2"/>
+    </row>
+    <row r="176" spans="1:22" ht="14.1">
+      <c r="A176" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6138,16 +5411,11 @@
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
-      <c r="W176" s="2"/>
-      <c r="X176" s="2"/>
-      <c r="Y176" s="2"/>
-      <c r="Z176" s="2"/>
-    </row>
-    <row r="177" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B177" s="2"/>
+    </row>
+    <row r="177" spans="1:22" ht="14.1">
+      <c r="A177" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6168,16 +5436,11 @@
       <c r="T177" s="2"/>
       <c r="U177" s="2"/>
       <c r="V177" s="2"/>
-      <c r="W177" s="2"/>
-      <c r="X177" s="2"/>
-      <c r="Y177" s="2"/>
-      <c r="Z177" s="2"/>
-    </row>
-    <row r="178" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B178" s="2"/>
+    </row>
+    <row r="178" spans="1:22" ht="14.1">
+      <c r="A178" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6198,16 +5461,11 @@
       <c r="T178" s="2"/>
       <c r="U178" s="2"/>
       <c r="V178" s="2"/>
-      <c r="W178" s="2"/>
-      <c r="X178" s="2"/>
-      <c r="Y178" s="2"/>
-      <c r="Z178" s="2"/>
-    </row>
-    <row r="179" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B179" s="2"/>
+    </row>
+    <row r="179" spans="1:22" ht="14.1">
+      <c r="A179" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6228,16 +5486,11 @@
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
-      <c r="W179" s="2"/>
-      <c r="X179" s="2"/>
-      <c r="Y179" s="2"/>
-      <c r="Z179" s="2"/>
-    </row>
-    <row r="180" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B180" s="2"/>
+    </row>
+    <row r="180" spans="1:22" ht="14.1">
+      <c r="A180" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -6258,16 +5511,14 @@
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
-      <c r="Z180" s="2"/>
-    </row>
-    <row r="181" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B181" s="2"/>
+    </row>
+    <row r="181" spans="1:22" ht="14.1">
+      <c r="A181" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6288,16 +5539,11 @@
       <c r="T181" s="2"/>
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
-      <c r="W181" s="2"/>
-      <c r="X181" s="2"/>
-      <c r="Y181" s="2"/>
-      <c r="Z181" s="2"/>
-    </row>
-    <row r="182" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B182" s="2"/>
+    </row>
+    <row r="182" spans="1:22" ht="14.1">
+      <c r="A182" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6318,16 +5564,11 @@
       <c r="T182" s="2"/>
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
-      <c r="W182" s="2"/>
-      <c r="X182" s="2"/>
-      <c r="Y182" s="2"/>
-      <c r="Z182" s="2"/>
-    </row>
-    <row r="183" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B183" s="2"/>
+    </row>
+    <row r="183" spans="1:22" ht="14.1">
+      <c r="A183" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -6348,16 +5589,11 @@
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
-      <c r="W183" s="2"/>
-      <c r="X183" s="2"/>
-      <c r="Y183" s="2"/>
-      <c r="Z183" s="2"/>
-    </row>
-    <row r="184" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B184" s="2"/>
+    </row>
+    <row r="184" spans="1:22" ht="14.1">
+      <c r="A184" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -6378,16 +5614,11 @@
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
-      <c r="W184" s="2"/>
-      <c r="X184" s="2"/>
-      <c r="Y184" s="2"/>
-      <c r="Z184" s="2"/>
-    </row>
-    <row r="185" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185" s="2"/>
+    </row>
+    <row r="185" spans="1:22" ht="14.1">
+      <c r="A185" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -6408,16 +5639,11 @@
       <c r="T185" s="2"/>
       <c r="U185" s="2"/>
       <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
-      <c r="X185" s="2"/>
-      <c r="Y185" s="2"/>
-      <c r="Z185" s="2"/>
-    </row>
-    <row r="186" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B186" s="2"/>
+    </row>
+    <row r="186" spans="1:22" ht="14.1">
+      <c r="A186" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -6438,16 +5664,11 @@
       <c r="T186" s="2"/>
       <c r="U186" s="2"/>
       <c r="V186" s="2"/>
-      <c r="W186" s="2"/>
-      <c r="X186" s="2"/>
-      <c r="Y186" s="2"/>
-      <c r="Z186" s="2"/>
-    </row>
-    <row r="187" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B187" s="2"/>
+    </row>
+    <row r="187" spans="1:22" ht="14.1">
+      <c r="A187" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6468,16 +5689,11 @@
       <c r="T187" s="2"/>
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
-      <c r="W187" s="2"/>
-      <c r="X187" s="2"/>
-      <c r="Y187" s="2"/>
-      <c r="Z187" s="2"/>
-    </row>
-    <row r="188" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B188" s="2"/>
+    </row>
+    <row r="188" spans="1:22" ht="14.1">
+      <c r="A188" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -6498,16 +5714,11 @@
       <c r="T188" s="2"/>
       <c r="U188" s="2"/>
       <c r="V188" s="2"/>
-      <c r="W188" s="2"/>
-      <c r="X188" s="2"/>
-      <c r="Y188" s="2"/>
-      <c r="Z188" s="2"/>
-    </row>
-    <row r="189" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B189" s="2"/>
+    </row>
+    <row r="189" spans="1:22" ht="14.1">
+      <c r="A189" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -6528,13 +5739,9 @@
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
       <c r="V189" s="2"/>
-      <c r="W189" s="2"/>
-      <c r="X189" s="2"/>
-      <c r="Y189" s="2"/>
-      <c r="Z189" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A189" xr:uid="{BAC2E79A-8825-4CE9-857B-7D9546069D41}"/>
+  <autoFilter ref="A1:B189" xr:uid="{6318ECFA-FA49-DB48-8FAD-167A45B7C062}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6543,165 +5750,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5A2C8-C825-4F58-9B1A-5C91AA0BE937}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.1">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.1">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.1">
       <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.1">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.1">
       <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.1">
       <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.1">
       <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.1">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.1">
       <c r="A13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.1">
       <c r="A14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.1">
       <c r="A15" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.1">
       <c r="A16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.1">
       <c r="A17" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.1">
       <c r="A18" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.1">
       <c r="A19" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.1">
       <c r="A20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.1">
       <c r="A21" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.1">
       <c r="A22" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.1">
       <c r="A23" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.1">
       <c r="A24" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.1">
       <c r="A25" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14.1">
       <c r="A26" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="14.1">
       <c r="A27" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="14.1">
       <c r="A28" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="14.1">
       <c r="A29" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14.1">
       <c r="A30" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="14.1">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -6710,6 +5917,512 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4761747-A368-4AFE-A9B1-D379E9C95DCA}">
+  <dimension ref="A1:A98"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.1">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.1">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.1">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.1">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.1">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.1">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.1">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.1">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.1">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.1">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.1">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.1">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.1">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.1">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.1">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.1">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.1">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.1">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.1">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.1">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.1">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.1">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.1">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14.1">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="14.1">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="14.1">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="14.1">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14.1">
+      <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="14.1">
+      <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="14.1">
+      <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="14.1">
+      <c r="A33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="14.1">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="14.1">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="14.1">
+      <c r="A36" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="14.1">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="14.1">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="14.1">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="14.1">
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="14.1">
+      <c r="A41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="14.1">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="14.1">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="14.1">
+      <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="14.1">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="14.1">
+      <c r="A46" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="14.1">
+      <c r="A47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="14.1">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="14.1">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="14.1">
+      <c r="A50" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="14.1">
+      <c r="A51" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="14.1">
+      <c r="A52" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="14.1">
+      <c r="A53" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="14.1">
+      <c r="A54" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="14.1">
+      <c r="A55" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="14.1">
+      <c r="A56" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="14.1">
+      <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="14.1">
+      <c r="A58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="14.1">
+      <c r="A59" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="14.1">
+      <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="14.1">
+      <c r="A61" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="14.1">
+      <c r="A62" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="14.1">
+      <c r="A63" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="14.1">
+      <c r="A64" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="14.1">
+      <c r="A65" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="14.1">
+      <c r="A66" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="14.1">
+      <c r="A67" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="14.1">
+      <c r="A68" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="14.1">
+      <c r="A69" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="14.1">
+      <c r="A70" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="14.1">
+      <c r="A71" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="14.1">
+      <c r="A72" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="14.1">
+      <c r="A73" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="14.1">
+      <c r="A74" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="14.1">
+      <c r="A75" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="14.1">
+      <c r="A76" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="14.1">
+      <c r="A77" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="14.1">
+      <c r="A78" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="14.1">
+      <c r="A79" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="14.1">
+      <c r="A80" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="14.1">
+      <c r="A81" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="14.1">
+      <c r="A82" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="14.1">
+      <c r="A83" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="14.1">
+      <c r="A84" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="14.1">
+      <c r="A85" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="14.1">
+      <c r="A86" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="14.1">
+      <c r="A87" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="14.1">
+      <c r="A88" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="14.1">
+      <c r="A89" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="14.1">
+      <c r="A90" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="14.1">
+      <c r="A91" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="14.1">
+      <c r="A92" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="14.1">
+      <c r="A93" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="14.1">
+      <c r="A94" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="14.1">
+      <c r="A95" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="14.1">
+      <c r="A96" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="14.1">
+      <c r="A97" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="14.1">
+      <c r="A98" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A98" xr:uid="{416D2CF4-A746-4AFD-BA29-BFB166CAADE1}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EFFE78-1A75-4D08-8391-AA6451426A90}">
   <dimension ref="A1:A48"/>
   <sheetViews>
@@ -6717,751 +6430,246 @@
       <selection activeCell="A2" sqref="A2:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.1">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.1">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.1">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.1">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.1">
       <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.1">
       <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.1">
       <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.1">
       <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.1">
       <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="14.1">
       <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.1">
       <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.1">
       <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.1">
       <c r="A19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.1">
       <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.1">
       <c r="A21" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="14.1">
       <c r="A22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.1">
       <c r="A23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.1">
       <c r="A24" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.1">
       <c r="A25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14.1">
       <c r="A26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="14.1">
       <c r="A27" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="14.1">
       <c r="A28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="14.1">
       <c r="A29" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14.1">
       <c r="A30" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="14.1">
       <c r="A31" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="14.1">
       <c r="A32" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="14.1">
       <c r="A33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="14.1">
       <c r="A34" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="14.1">
       <c r="A35" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="14.1">
       <c r="A36" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="14.1">
       <c r="A37" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="14.1">
       <c r="A38" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="14.1">
       <c r="A39" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="14.1">
       <c r="A40" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="14.1">
       <c r="A41" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="14.1">
       <c r="A42" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="14.1">
       <c r="A43" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="14.1">
       <c r="A44" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="14.1">
       <c r="A45" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="14.1">
       <c r="A46" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="14.1">
       <c r="A47" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="14.1">
       <c r="A48" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4761747-A368-4AFE-A9B1-D379E9C95DCA}">
-  <dimension ref="A1:A98"/>
-  <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A98"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7477,84 +6685,257 @@
       <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.1">
       <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.1">
       <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.1">
       <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.1">
       <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.1">
       <c r="A7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.1">
       <c r="A8" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="14.1">
       <c r="A9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="14.1">
       <c r="A10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="14.1">
       <c r="A11" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="14.1">
       <c r="A12" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="14.1">
       <c r="A13" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="14.1">
       <c r="A14" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="14.1">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DED0885848A8B24B82F7103350728186" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5dad69b2f3971b38bfca10bb606c71b6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ad9ff78-4af8-4716-b405-f8951ef619a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d163d7ba591cbc40c4d2954ed2cc1d2" ns2:_="">
+    <xsd:import namespace="0ad9ff78-4af8-4716-b405-f8951ef619a1"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0ad9ff78-4af8-4716-b405-f8951ef619a1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9067B0B-AB45-4C12-B4CF-06B50DFDCDD4}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4E4A37-E1B6-4827-BF17-1C3BDDCCF882}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BE2C663-E827-4BB5-8E11-07C2EB4228B0}"/>
 </file>
--- a/Breed List.xlsx
+++ b/Breed List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petgroomerie.sharepoint.com/sites/ScenthoundMyTimeimplementation/Shared Documents/Data Conversion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\PycharmProjects\AutomatedWebTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{D03CE5FE-B335-4D3E-9F30-668C1525D334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FA8F80D-DD5F-4606-B0EA-314F16E6D684}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1BE2E4-03AF-497A-B877-AE830ED68845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32580" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2'!$A$1:$A$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$B$189</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="212">
   <si>
     <t>Breed</t>
   </si>
@@ -668,13 +666,19 @@
   </si>
   <si>
     <t>Yorkshire Terrier/Yorkie - 2</t>
+  </si>
+  <si>
+    <t>Mini Dachschund Long Hair - 2</t>
+  </si>
+  <si>
+    <t>Mini Dachschund Short hair - 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -961,18 +965,18 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -980,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.1">
+    <row r="2" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +1012,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="14.1">
+    <row r="3" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1040,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="14.1">
+    <row r="4" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1065,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="14.1">
+    <row r="5" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1089,7 +1093,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="14.1">
+    <row r="6" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1121,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="14.1">
+    <row r="7" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1146,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="14.1">
+    <row r="8" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1170,7 +1174,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="14.1">
+    <row r="9" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1195,7 +1199,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="14.1">
+    <row r="10" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1220,7 +1224,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="14.1">
+    <row r="11" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1245,7 +1249,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="14.1">
+    <row r="12" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1270,7 +1274,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="14.1">
+    <row r="13" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1298,7 +1302,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="14.1">
+    <row r="14" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1323,7 +1327,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="14.1">
+    <row r="15" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1352,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="14.1">
+    <row r="16" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1377,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="14.1">
+    <row r="17" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1402,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="14.1">
+    <row r="18" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1423,7 +1427,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="14.1">
+    <row r="19" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1451,7 +1455,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="14.1">
+    <row r="20" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1476,7 +1480,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="14.1">
+    <row r="21" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1501,7 +1505,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="14.1">
+    <row r="22" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -1526,7 +1530,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="14.1">
+    <row r="23" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +1558,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="14.1">
+    <row r="24" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>32</v>
       </c>
@@ -1579,7 +1583,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="14.1">
+    <row r="25" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1604,7 +1608,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="14.1">
+    <row r="26" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -1629,7 +1633,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="14.1">
+    <row r="27" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -1654,7 +1658,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="14.1">
+    <row r="28" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1679,7 +1683,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="14.1">
+    <row r="29" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +1708,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="14.1">
+    <row r="30" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
@@ -1729,7 +1733,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="14.1">
+    <row r="31" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
@@ -1754,7 +1758,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="14.1">
+    <row r="32" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>40</v>
       </c>
@@ -1779,7 +1783,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="14.1">
+    <row r="33" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1804,7 +1808,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="14.1">
+    <row r="34" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1829,7 +1833,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" ht="14.1">
+    <row r="35" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1854,7 +1858,7 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" ht="14.1">
+    <row r="36" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -1879,7 +1883,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" ht="14.1">
+    <row r="37" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -1904,7 +1908,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="14.1">
+    <row r="38" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -1929,7 +1933,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:22" ht="14.1">
+    <row r="39" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -1954,7 +1958,7 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="14.1">
+    <row r="40" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -1979,7 +1983,7 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:22" ht="14.1">
+    <row r="41" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -2004,7 +2008,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:22" ht="14.1">
+    <row r="42" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -2029,7 +2033,7 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
     </row>
-    <row r="43" spans="1:22" ht="14.1">
+    <row r="43" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -2054,7 +2058,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:22" ht="14.1">
+    <row r="44" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -2079,7 +2083,7 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:22" ht="14.1">
+    <row r="45" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -2104,7 +2108,7 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:22" ht="14.1">
+    <row r="46" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -2129,7 +2133,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:22" ht="14.1">
+    <row r="47" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -2154,7 +2158,7 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:22" ht="14.1">
+    <row r="48" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -2179,7 +2183,7 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" ht="14.1">
+    <row r="49" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -2204,7 +2208,7 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" ht="14.1">
+    <row r="50" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
@@ -2229,7 +2233,7 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" ht="14.1">
+    <row r="51" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
@@ -2254,7 +2258,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" ht="14.1">
+    <row r="52" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
@@ -2279,7 +2283,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" ht="14.1">
+    <row r="53" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>61</v>
       </c>
@@ -2304,7 +2308,7 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" ht="14.1">
+    <row r="54" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
@@ -2329,7 +2333,7 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" ht="14.1">
+    <row r="55" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>63</v>
       </c>
@@ -2354,7 +2358,7 @@
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" ht="14.1">
+    <row r="56" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>64</v>
       </c>
@@ -2379,7 +2383,7 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" ht="14.1">
+    <row r="57" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
@@ -2404,7 +2408,7 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="14.1">
+    <row r="58" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>66</v>
       </c>
@@ -2432,7 +2436,7 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" ht="14.1">
+    <row r="59" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
@@ -2457,7 +2461,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="14.1">
+    <row r="60" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
@@ -2482,7 +2486,7 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" ht="14.1">
+    <row r="61" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2511,7 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" ht="14.1">
+    <row r="62" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
@@ -2532,7 +2536,7 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" ht="14.1">
+    <row r="63" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
@@ -2557,7 +2561,7 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" ht="14.1">
+    <row r="64" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
@@ -2582,7 +2586,7 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:22" ht="14.1">
+    <row r="65" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -2607,7 +2611,7 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:22" ht="14.1">
+    <row r="66" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
@@ -2632,7 +2636,7 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:22" ht="14.1">
+    <row r="67" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
@@ -2657,7 +2661,7 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:22" ht="14.1">
+    <row r="68" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
@@ -2682,7 +2686,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" ht="14.1">
+    <row r="69" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
@@ -2707,7 +2711,7 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:22" ht="14.1">
+    <row r="70" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
@@ -2732,7 +2736,7 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:22" ht="14.1">
+    <row r="71" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
@@ -2760,7 +2764,7 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:22" ht="14.1">
+    <row r="72" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>82</v>
       </c>
@@ -2788,7 +2792,7 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:22" ht="14.1">
+    <row r="73" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>84</v>
       </c>
@@ -2813,7 +2817,7 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
     </row>
-    <row r="74" spans="1:22" ht="14.1">
+    <row r="74" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>85</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
     </row>
-    <row r="75" spans="1:22" ht="14.1">
+    <row r="75" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>86</v>
       </c>
@@ -2863,7 +2867,7 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
     </row>
-    <row r="76" spans="1:22" ht="14.1">
+    <row r="76" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>87</v>
       </c>
@@ -2888,7 +2892,7 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="77" spans="1:22" ht="14.1">
+    <row r="77" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>88</v>
       </c>
@@ -2913,7 +2917,7 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
     </row>
-    <row r="78" spans="1:22" ht="14.1">
+    <row r="78" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>89</v>
       </c>
@@ -2938,7 +2942,7 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" ht="14.1">
+    <row r="79" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>90</v>
       </c>
@@ -2963,7 +2967,7 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="14.1">
+    <row r="80" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>91</v>
       </c>
@@ -2988,7 +2992,7 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:22" ht="14.1">
+    <row r="81" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>92</v>
       </c>
@@ -3013,7 +3017,7 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:22" ht="14.1">
+    <row r="82" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>93</v>
       </c>
@@ -3038,7 +3042,7 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" spans="1:22" ht="14.1">
+    <row r="83" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>94</v>
       </c>
@@ -3063,7 +3067,7 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84" spans="1:22" ht="14.1">
+    <row r="84" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>95</v>
       </c>
@@ -3088,7 +3092,7 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:22" ht="14.1">
+    <row r="85" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
@@ -3116,7 +3120,7 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" spans="1:22" ht="14.1">
+    <row r="86" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>98</v>
       </c>
@@ -3141,7 +3145,7 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" spans="1:22" ht="14.1">
+    <row r="87" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
@@ -3166,7 +3170,7 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:22" ht="14.1">
+    <row r="88" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>100</v>
       </c>
@@ -3191,7 +3195,7 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:22" ht="14.1">
+    <row r="89" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>101</v>
       </c>
@@ -3216,7 +3220,7 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" spans="1:22" ht="14.1">
+    <row r="90" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>102</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:22" ht="14.1">
+    <row r="91" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -3266,7 +3270,7 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" spans="1:22" ht="14.1">
+    <row r="92" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>104</v>
       </c>
@@ -3291,7 +3295,7 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:22" ht="14.1">
+    <row r="93" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>105</v>
       </c>
@@ -3319,7 +3323,7 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:22" ht="14.1">
+    <row r="94" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>107</v>
       </c>
@@ -3347,7 +3351,7 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:22" ht="14.1">
+    <row r="95" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>109</v>
       </c>
@@ -3372,7 +3376,7 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:22" ht="14.1">
+    <row r="96" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>110</v>
       </c>
@@ -3397,7 +3401,7 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:22" ht="14.1">
+    <row r="97" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>111</v>
       </c>
@@ -3422,7 +3426,7 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:22" ht="14.1">
+    <row r="98" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>112</v>
       </c>
@@ -3447,7 +3451,7 @@
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:22" ht="14.1">
+    <row r="99" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>113</v>
       </c>
@@ -3472,7 +3476,7 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:22" ht="14.1">
+    <row r="100" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>114</v>
       </c>
@@ -3497,7 +3501,7 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
     </row>
-    <row r="101" spans="1:22" ht="14.1">
+    <row r="101" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>115</v>
       </c>
@@ -3522,7 +3526,7 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
     </row>
-    <row r="102" spans="1:22" ht="14.1">
+    <row r="102" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>116</v>
       </c>
@@ -3547,7 +3551,7 @@
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
     </row>
-    <row r="103" spans="1:22" ht="14.1">
+    <row r="103" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>117</v>
       </c>
@@ -3575,7 +3579,7 @@
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:22" ht="14.1">
+    <row r="104" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>119</v>
       </c>
@@ -3600,7 +3604,7 @@
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
     </row>
-    <row r="105" spans="1:22" ht="14.1">
+    <row r="105" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>120</v>
       </c>
@@ -3625,7 +3629,7 @@
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
     </row>
-    <row r="106" spans="1:22" ht="14.1">
+    <row r="106" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>121</v>
       </c>
@@ -3650,7 +3654,7 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
     </row>
-    <row r="107" spans="1:22" ht="14.1">
+    <row r="107" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>122</v>
       </c>
@@ -3675,7 +3679,7 @@
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
     </row>
-    <row r="108" spans="1:22" ht="14.1">
+    <row r="108" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>123</v>
       </c>
@@ -3700,7 +3704,7 @@
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
     </row>
-    <row r="109" spans="1:22" ht="14.1">
+    <row r="109" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>124</v>
       </c>
@@ -3725,7 +3729,7 @@
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
     </row>
-    <row r="110" spans="1:22" ht="14.1">
+    <row r="110" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>125</v>
       </c>
@@ -3750,7 +3754,7 @@
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
     </row>
-    <row r="111" spans="1:22" ht="14.1">
+    <row r="111" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>126</v>
       </c>
@@ -3775,7 +3779,7 @@
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
     </row>
-    <row r="112" spans="1:22" ht="14.1">
+    <row r="112" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>127</v>
       </c>
@@ -3800,7 +3804,7 @@
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
     </row>
-    <row r="113" spans="1:22" ht="14.1">
+    <row r="113" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>128</v>
       </c>
@@ -3825,7 +3829,7 @@
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
     </row>
-    <row r="114" spans="1:22" ht="14.1">
+    <row r="114" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>129</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
     </row>
-    <row r="115" spans="1:22" ht="14.1">
+    <row r="115" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>130</v>
       </c>
@@ -3875,7 +3879,7 @@
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
     </row>
-    <row r="116" spans="1:22" ht="14.1">
+    <row r="116" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>131</v>
       </c>
@@ -3900,7 +3904,7 @@
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
     </row>
-    <row r="117" spans="1:22" ht="14.1">
+    <row r="117" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>132</v>
       </c>
@@ -3925,7 +3929,7 @@
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
     </row>
-    <row r="118" spans="1:22" ht="14.1">
+    <row r="118" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>133</v>
       </c>
@@ -3950,7 +3954,7 @@
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
     </row>
-    <row r="119" spans="1:22" ht="14.1">
+    <row r="119" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>134</v>
       </c>
@@ -3975,7 +3979,7 @@
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
     </row>
-    <row r="120" spans="1:22" ht="14.1">
+    <row r="120" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>135</v>
       </c>
@@ -4003,7 +4007,7 @@
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
     </row>
-    <row r="121" spans="1:22" ht="14.1">
+    <row r="121" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>137</v>
       </c>
@@ -4031,7 +4035,7 @@
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
     </row>
-    <row r="122" spans="1:22" ht="14.1">
+    <row r="122" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>139</v>
       </c>
@@ -4056,7 +4060,7 @@
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
     </row>
-    <row r="123" spans="1:22" ht="14.1">
+    <row r="123" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>140</v>
       </c>
@@ -4081,7 +4085,7 @@
       <c r="U123" s="2"/>
       <c r="V123" s="2"/>
     </row>
-    <row r="124" spans="1:22" ht="14.1">
+    <row r="124" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>141</v>
       </c>
@@ -4106,7 +4110,7 @@
       <c r="U124" s="2"/>
       <c r="V124" s="2"/>
     </row>
-    <row r="125" spans="1:22" ht="14.1">
+    <row r="125" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>142</v>
       </c>
@@ -4131,7 +4135,7 @@
       <c r="U125" s="2"/>
       <c r="V125" s="2"/>
     </row>
-    <row r="126" spans="1:22" ht="14.1">
+    <row r="126" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>143</v>
       </c>
@@ -4156,7 +4160,7 @@
       <c r="U126" s="2"/>
       <c r="V126" s="2"/>
     </row>
-    <row r="127" spans="1:22" ht="14.1">
+    <row r="127" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>144</v>
       </c>
@@ -4181,7 +4185,7 @@
       <c r="U127" s="2"/>
       <c r="V127" s="2"/>
     </row>
-    <row r="128" spans="1:22" ht="14.1">
+    <row r="128" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>145</v>
       </c>
@@ -4206,7 +4210,7 @@
       <c r="U128" s="2"/>
       <c r="V128" s="2"/>
     </row>
-    <row r="129" spans="1:22" ht="14.1">
+    <row r="129" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>146</v>
       </c>
@@ -4231,7 +4235,7 @@
       <c r="U129" s="2"/>
       <c r="V129" s="2"/>
     </row>
-    <row r="130" spans="1:22" ht="14.1">
+    <row r="130" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>147</v>
       </c>
@@ -4256,7 +4260,7 @@
       <c r="U130" s="2"/>
       <c r="V130" s="2"/>
     </row>
-    <row r="131" spans="1:22" ht="14.1">
+    <row r="131" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>148</v>
       </c>
@@ -4281,7 +4285,7 @@
       <c r="U131" s="2"/>
       <c r="V131" s="2"/>
     </row>
-    <row r="132" spans="1:22" ht="14.1">
+    <row r="132" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>149</v>
       </c>
@@ -4306,7 +4310,7 @@
       <c r="U132" s="2"/>
       <c r="V132" s="2"/>
     </row>
-    <row r="133" spans="1:22" ht="14.1">
+    <row r="133" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>150</v>
       </c>
@@ -4331,7 +4335,7 @@
       <c r="U133" s="2"/>
       <c r="V133" s="2"/>
     </row>
-    <row r="134" spans="1:22" ht="14.1">
+    <row r="134" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>151</v>
       </c>
@@ -4356,7 +4360,7 @@
       <c r="U134" s="2"/>
       <c r="V134" s="2"/>
     </row>
-    <row r="135" spans="1:22" ht="14.1">
+    <row r="135" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>152</v>
       </c>
@@ -4381,7 +4385,7 @@
       <c r="U135" s="2"/>
       <c r="V135" s="2"/>
     </row>
-    <row r="136" spans="1:22" ht="14.1">
+    <row r="136" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>153</v>
       </c>
@@ -4406,7 +4410,7 @@
       <c r="U136" s="2"/>
       <c r="V136" s="2"/>
     </row>
-    <row r="137" spans="1:22" ht="14.1">
+    <row r="137" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>154</v>
       </c>
@@ -4434,7 +4438,7 @@
       <c r="U137" s="2"/>
       <c r="V137" s="2"/>
     </row>
-    <row r="138" spans="1:22" ht="14.1">
+    <row r="138" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>156</v>
       </c>
@@ -4459,7 +4463,7 @@
       <c r="U138" s="2"/>
       <c r="V138" s="2"/>
     </row>
-    <row r="139" spans="1:22" ht="14.1">
+    <row r="139" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>157</v>
       </c>
@@ -4484,7 +4488,7 @@
       <c r="U139" s="2"/>
       <c r="V139" s="2"/>
     </row>
-    <row r="140" spans="1:22" ht="14.1">
+    <row r="140" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>158</v>
       </c>
@@ -4509,7 +4513,7 @@
       <c r="U140" s="2"/>
       <c r="V140" s="2"/>
     </row>
-    <row r="141" spans="1:22" ht="14.1">
+    <row r="141" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>159</v>
       </c>
@@ -4534,7 +4538,7 @@
       <c r="U141" s="2"/>
       <c r="V141" s="2"/>
     </row>
-    <row r="142" spans="1:22" ht="14.1">
+    <row r="142" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>160</v>
       </c>
@@ -4559,7 +4563,7 @@
       <c r="U142" s="2"/>
       <c r="V142" s="2"/>
     </row>
-    <row r="143" spans="1:22" ht="14.1">
+    <row r="143" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>161</v>
       </c>
@@ -4584,7 +4588,7 @@
       <c r="U143" s="2"/>
       <c r="V143" s="2"/>
     </row>
-    <row r="144" spans="1:22" ht="14.1">
+    <row r="144" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>162</v>
       </c>
@@ -4609,7 +4613,7 @@
       <c r="U144" s="2"/>
       <c r="V144" s="2"/>
     </row>
-    <row r="145" spans="1:22" ht="14.1">
+    <row r="145" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>163</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="U145" s="2"/>
       <c r="V145" s="2"/>
     </row>
-    <row r="146" spans="1:22" ht="14.1">
+    <row r="146" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>164</v>
       </c>
@@ -4659,7 +4663,7 @@
       <c r="U146" s="2"/>
       <c r="V146" s="2"/>
     </row>
-    <row r="147" spans="1:22" ht="14.1">
+    <row r="147" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>165</v>
       </c>
@@ -4684,7 +4688,7 @@
       <c r="U147" s="2"/>
       <c r="V147" s="2"/>
     </row>
-    <row r="148" spans="1:22" ht="14.1">
+    <row r="148" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>166</v>
       </c>
@@ -4709,7 +4713,7 @@
       <c r="U148" s="2"/>
       <c r="V148" s="2"/>
     </row>
-    <row r="149" spans="1:22" ht="14.1">
+    <row r="149" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>167</v>
       </c>
@@ -4734,7 +4738,7 @@
       <c r="U149" s="2"/>
       <c r="V149" s="2"/>
     </row>
-    <row r="150" spans="1:22" ht="14.1">
+    <row r="150" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>168</v>
       </c>
@@ -4759,7 +4763,7 @@
       <c r="U150" s="2"/>
       <c r="V150" s="2"/>
     </row>
-    <row r="151" spans="1:22" ht="14.1">
+    <row r="151" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>169</v>
       </c>
@@ -4784,7 +4788,7 @@
       <c r="U151" s="2"/>
       <c r="V151" s="2"/>
     </row>
-    <row r="152" spans="1:22" ht="14.1">
+    <row r="152" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>170</v>
       </c>
@@ -4809,7 +4813,7 @@
       <c r="U152" s="2"/>
       <c r="V152" s="2"/>
     </row>
-    <row r="153" spans="1:22" ht="14.1">
+    <row r="153" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>171</v>
       </c>
@@ -4834,7 +4838,7 @@
       <c r="U153" s="2"/>
       <c r="V153" s="2"/>
     </row>
-    <row r="154" spans="1:22" ht="14.1">
+    <row r="154" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>172</v>
       </c>
@@ -4859,7 +4863,7 @@
       <c r="U154" s="2"/>
       <c r="V154" s="2"/>
     </row>
-    <row r="155" spans="1:22" ht="14.1">
+    <row r="155" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>173</v>
       </c>
@@ -4884,7 +4888,7 @@
       <c r="U155" s="2"/>
       <c r="V155" s="2"/>
     </row>
-    <row r="156" spans="1:22" ht="14.1">
+    <row r="156" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>174</v>
       </c>
@@ -4909,7 +4913,7 @@
       <c r="U156" s="2"/>
       <c r="V156" s="2"/>
     </row>
-    <row r="157" spans="1:22" ht="14.1">
+    <row r="157" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>175</v>
       </c>
@@ -4934,7 +4938,7 @@
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
     </row>
-    <row r="158" spans="1:22" ht="14.1">
+    <row r="158" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>176</v>
       </c>
@@ -4959,7 +4963,7 @@
       <c r="U158" s="2"/>
       <c r="V158" s="2"/>
     </row>
-    <row r="159" spans="1:22" ht="14.1">
+    <row r="159" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>177</v>
       </c>
@@ -4984,7 +4988,7 @@
       <c r="U159" s="2"/>
       <c r="V159" s="2"/>
     </row>
-    <row r="160" spans="1:22" ht="14.1">
+    <row r="160" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>178</v>
       </c>
@@ -5009,7 +5013,7 @@
       <c r="U160" s="2"/>
       <c r="V160" s="2"/>
     </row>
-    <row r="161" spans="1:22" ht="14.1">
+    <row r="161" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>179</v>
       </c>
@@ -5034,7 +5038,7 @@
       <c r="U161" s="2"/>
       <c r="V161" s="2"/>
     </row>
-    <row r="162" spans="1:22" ht="14.1">
+    <row r="162" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>180</v>
       </c>
@@ -5059,7 +5063,7 @@
       <c r="U162" s="2"/>
       <c r="V162" s="2"/>
     </row>
-    <row r="163" spans="1:22" ht="14.1">
+    <row r="163" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>181</v>
       </c>
@@ -5084,7 +5088,7 @@
       <c r="U163" s="2"/>
       <c r="V163" s="2"/>
     </row>
-    <row r="164" spans="1:22" ht="14.1">
+    <row r="164" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>182</v>
       </c>
@@ -5109,7 +5113,7 @@
       <c r="U164" s="2"/>
       <c r="V164" s="2"/>
     </row>
-    <row r="165" spans="1:22" ht="14.1">
+    <row r="165" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>183</v>
       </c>
@@ -5134,7 +5138,7 @@
       <c r="U165" s="2"/>
       <c r="V165" s="2"/>
     </row>
-    <row r="166" spans="1:22" ht="14.1">
+    <row r="166" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>184</v>
       </c>
@@ -5159,7 +5163,7 @@
       <c r="U166" s="2"/>
       <c r="V166" s="2"/>
     </row>
-    <row r="167" spans="1:22" ht="14.1">
+    <row r="167" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>185</v>
       </c>
@@ -5184,7 +5188,7 @@
       <c r="U167" s="2"/>
       <c r="V167" s="2"/>
     </row>
-    <row r="168" spans="1:22" ht="14.1">
+    <row r="168" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>186</v>
       </c>
@@ -5209,7 +5213,7 @@
       <c r="U168" s="2"/>
       <c r="V168" s="2"/>
     </row>
-    <row r="169" spans="1:22" ht="14.1">
+    <row r="169" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>187</v>
       </c>
@@ -5234,7 +5238,7 @@
       <c r="U169" s="2"/>
       <c r="V169" s="2"/>
     </row>
-    <row r="170" spans="1:22" ht="14.1">
+    <row r="170" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>188</v>
       </c>
@@ -5259,7 +5263,7 @@
       <c r="U170" s="2"/>
       <c r="V170" s="2"/>
     </row>
-    <row r="171" spans="1:22" ht="14.1">
+    <row r="171" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>189</v>
       </c>
@@ -5284,7 +5288,7 @@
       <c r="U171" s="2"/>
       <c r="V171" s="2"/>
     </row>
-    <row r="172" spans="1:22" ht="14.1">
+    <row r="172" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>190</v>
       </c>
@@ -5309,7 +5313,7 @@
       <c r="U172" s="2"/>
       <c r="V172" s="2"/>
     </row>
-    <row r="173" spans="1:22" ht="14.1">
+    <row r="173" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>191</v>
       </c>
@@ -5334,7 +5338,7 @@
       <c r="U173" s="2"/>
       <c r="V173" s="2"/>
     </row>
-    <row r="174" spans="1:22" ht="14.1">
+    <row r="174" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>192</v>
       </c>
@@ -5359,7 +5363,7 @@
       <c r="U174" s="2"/>
       <c r="V174" s="2"/>
     </row>
-    <row r="175" spans="1:22" ht="14.1">
+    <row r="175" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>193</v>
       </c>
@@ -5384,7 +5388,7 @@
       <c r="U175" s="2"/>
       <c r="V175" s="2"/>
     </row>
-    <row r="176" spans="1:22" ht="14.1">
+    <row r="176" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>194</v>
       </c>
@@ -5412,7 +5416,7 @@
       <c r="U176" s="2"/>
       <c r="V176" s="2"/>
     </row>
-    <row r="177" spans="1:22" ht="14.1">
+    <row r="177" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>196</v>
       </c>
@@ -5437,7 +5441,7 @@
       <c r="U177" s="2"/>
       <c r="V177" s="2"/>
     </row>
-    <row r="178" spans="1:22" ht="14.1">
+    <row r="178" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>197</v>
       </c>
@@ -5462,7 +5466,7 @@
       <c r="U178" s="2"/>
       <c r="V178" s="2"/>
     </row>
-    <row r="179" spans="1:22" ht="14.1">
+    <row r="179" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>198</v>
       </c>
@@ -5487,7 +5491,7 @@
       <c r="U179" s="2"/>
       <c r="V179" s="2"/>
     </row>
-    <row r="180" spans="1:22" ht="14.1">
+    <row r="180" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>199</v>
       </c>
@@ -5512,7 +5516,7 @@
       <c r="U180" s="2"/>
       <c r="V180" s="2"/>
     </row>
-    <row r="181" spans="1:22" ht="14.1">
+    <row r="181" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>200</v>
       </c>
@@ -5540,7 +5544,7 @@
       <c r="U181" s="2"/>
       <c r="V181" s="2"/>
     </row>
-    <row r="182" spans="1:22" ht="14.1">
+    <row r="182" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>202</v>
       </c>
@@ -5565,7 +5569,7 @@
       <c r="U182" s="2"/>
       <c r="V182" s="2"/>
     </row>
-    <row r="183" spans="1:22" ht="14.1">
+    <row r="183" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>203</v>
       </c>
@@ -5590,7 +5594,7 @@
       <c r="U183" s="2"/>
       <c r="V183" s="2"/>
     </row>
-    <row r="184" spans="1:22" ht="14.1">
+    <row r="184" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>204</v>
       </c>
@@ -5615,7 +5619,7 @@
       <c r="U184" s="2"/>
       <c r="V184" s="2"/>
     </row>
-    <row r="185" spans="1:22" ht="14.1">
+    <row r="185" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>205</v>
       </c>
@@ -5640,7 +5644,7 @@
       <c r="U185" s="2"/>
       <c r="V185" s="2"/>
     </row>
-    <row r="186" spans="1:22" ht="14.1">
+    <row r="186" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>206</v>
       </c>
@@ -5665,7 +5669,7 @@
       <c r="U186" s="2"/>
       <c r="V186" s="2"/>
     </row>
-    <row r="187" spans="1:22" ht="14.1">
+    <row r="187" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>207</v>
       </c>
@@ -5690,7 +5694,7 @@
       <c r="U187" s="2"/>
       <c r="V187" s="2"/>
     </row>
-    <row r="188" spans="1:22" ht="14.1">
+    <row r="188" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>208</v>
       </c>
@@ -5715,7 +5719,7 @@
       <c r="U188" s="2"/>
       <c r="V188" s="2"/>
     </row>
-    <row r="189" spans="1:22" ht="14.1">
+    <row r="189" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>209</v>
       </c>
@@ -5750,163 +5754,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5A2C8-C825-4F58-9B1A-5C91AA0BE937}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.1">
+    <row r="2" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.1">
+    <row r="3" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.1">
+    <row r="4" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.1">
+    <row r="5" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.1">
+    <row r="6" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.1">
+    <row r="7" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.1">
+    <row r="8" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.1">
+    <row r="9" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.1">
+    <row r="10" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.1">
+    <row r="11" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.1">
+    <row r="12" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.1">
+    <row r="13" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.1">
+    <row r="14" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.1">
+    <row r="15" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.1">
+    <row r="16" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.1">
+    <row r="17" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.1">
+    <row r="18" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.1">
+    <row r="19" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.1">
+    <row r="20" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.1">
+    <row r="21" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.1">
+    <row r="22" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.1">
+    <row r="23" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.1">
+    <row r="24" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.1">
+    <row r="25" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.1">
+    <row r="26" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="14.1">
+    <row r="27" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.1">
+    <row r="28" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14.1">
+    <row r="29" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="14.1">
+    <row r="30" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="14.1">
+    <row r="31" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>195</v>
       </c>
@@ -5920,498 +5924,498 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4761747-A368-4AFE-A9B1-D379E9C95DCA}">
   <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A98"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.1">
+    <row r="2" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.1">
+    <row r="4" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.1">
+    <row r="5" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.1">
+    <row r="6" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.1">
+    <row r="7" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.1">
+    <row r="8" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.1">
+    <row r="9" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.1">
+    <row r="10" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.1">
+    <row r="11" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.1">
+    <row r="12" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.1">
+    <row r="13" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.1">
+    <row r="14" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.1">
+    <row r="15" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.1">
+    <row r="16" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.1">
+    <row r="17" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.1">
+    <row r="18" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.1">
+    <row r="19" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.1">
+    <row r="20" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.1">
+    <row r="21" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.1">
+    <row r="22" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.1">
+    <row r="23" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.1">
+    <row r="24" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.1">
+    <row r="25" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.1">
+    <row r="26" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="14.1">
+    <row r="27" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.1">
+    <row r="28" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14.1">
+    <row r="29" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="14.1">
+    <row r="30" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="14.1">
+    <row r="31" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="14.1">
+    <row r="32" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="14.1">
+    <row r="33" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="14.1">
+    <row r="34" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="14.1">
+    <row r="35" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="14.1">
+    <row r="36" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="14.1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="14.1">
+    <row r="38" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="14.1">
+    <row r="39" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="14.1">
+    <row r="40" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="14.1">
+    <row r="41" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="14.1">
+    <row r="42" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="14.1">
+    <row r="43" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="14.1">
+    <row r="44" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="14.1">
+    <row r="45" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="14.1">
+    <row r="46" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="14.1">
+    <row r="47" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="14.1">
+    <row r="48" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.1">
+    <row r="49" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="14.1">
+    <row r="50" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="14.1">
+    <row r="51" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.1">
+    <row r="52" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.1">
+    <row r="53" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="14.1">
+    <row r="54" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="14.1">
+    <row r="55" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="14.1">
+    <row r="56" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="14.1">
+    <row r="57" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="14.1">
+    <row r="58" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="14.1">
+    <row r="59" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="14.1">
+    <row r="60" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="14.1">
+    <row r="61" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="14.1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="14.1">
+    <row r="63" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="14.1">
+    <row r="64" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="14.1">
+    <row r="65" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="14.1">
+    <row r="66" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="14.1">
+    <row r="67" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="14.1">
+    <row r="68" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="14.1">
+    <row r="69" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="14.1">
+    <row r="70" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="14.1">
+    <row r="71" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="14.1">
+    <row r="72" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="14.1">
+    <row r="73" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="14.1">
+    <row r="74" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="14.1">
+    <row r="75" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="14.1">
+    <row r="76" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="14.1">
+    <row r="77" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="14.1">
+    <row r="78" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="14.1">
+    <row r="79" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="14.1">
+    <row r="80" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="14.1">
+    <row r="81" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.1">
+    <row r="82" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="14.1">
+    <row r="83" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="14.1">
+    <row r="84" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="14.1">
+    <row r="85" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="14.1">
+    <row r="86" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="14.1">
+    <row r="87" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="14.1">
+    <row r="88" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="14.1">
+    <row r="89" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="14.1">
+    <row r="90" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="14.1">
+    <row r="91" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="14.1">
+    <row r="92" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="14.1">
+    <row r="93" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="14.1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="14.1">
+    <row r="95" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="14.1">
+    <row r="96" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="14.1">
+    <row r="97" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="14.1">
+    <row r="98" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>209</v>
       </c>
@@ -6426,248 +6430,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EFFE78-1A75-4D08-8391-AA6451426A90}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.1">
+    <row r="2" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.1">
+    <row r="3" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.1">
+    <row r="4" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.1">
+    <row r="5" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.1">
+    <row r="6" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.1">
+    <row r="8" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.1">
+    <row r="9" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.1">
+    <row r="10" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.1">
+    <row r="11" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.1">
+    <row r="12" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.1">
+    <row r="13" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.1">
+    <row r="14" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.1">
+    <row r="15" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.1">
+    <row r="16" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.1">
+    <row r="17" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.1">
+    <row r="18" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.1">
+    <row r="19" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.1">
+    <row r="20" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.1">
+    <row r="21" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="14.1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.1">
+    <row r="23" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.1">
+    <row r="24" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.1">
+    <row r="25" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.1">
+    <row r="26" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="14.1">
+    <row r="27" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.1">
+    <row r="28" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14.1">
+    <row r="29" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="14.1">
+    <row r="30" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="14.1">
+    <row r="31" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="14.1">
+    <row r="32" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="14.1">
+    <row r="33" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="14.1">
+    <row r="34" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="14.1">
+    <row r="35" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="14.1">
+    <row r="36" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="14.1">
+    <row r="37" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="14.1">
+    <row r="38" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="14.1">
+    <row r="39" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="14.1">
+    <row r="40" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="14.1">
+    <row r="41" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="14.1">
+    <row r="42" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="14.1">
+    <row r="43" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="14.1">
+    <row r="44" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="14.1">
+    <row r="45" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="14.1">
+    <row r="46" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="14.1">
+    <row r="47" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="14.1">
+    <row r="48" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>207</v>
       </c>
@@ -6682,82 +6686,82 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.1">
+    <row r="2" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.1">
+    <row r="3" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.1">
+    <row r="4" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.1">
+    <row r="5" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.1">
+    <row r="6" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.1">
+    <row r="7" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.1">
+    <row r="8" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.1">
+    <row r="9" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.1">
+    <row r="10" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.1">
+    <row r="11" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.1">
+    <row r="13" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.1">
+    <row r="14" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.1">
+    <row r="15" spans="1:1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>208</v>
       </c>
@@ -6774,15 +6778,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DED0885848A8B24B82F7103350728186" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5dad69b2f3971b38bfca10bb606c71b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ad9ff78-4af8-4716-b405-f8951ef619a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d163d7ba591cbc40c4d2954ed2cc1d2" ns2:_="">
     <xsd:import namespace="0ad9ff78-4af8-4716-b405-f8951ef619a1"/>
@@ -6928,14 +6923,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9067B0B-AB45-4C12-B4CF-06B50DFDCDD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9067B0B-AB45-4C12-B4CF-06B50DFDCDD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4E4A37-E1B6-4827-BF17-1C3BDDCCF882}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BE2C663-E827-4BB5-8E11-07C2EB4228B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0ad9ff78-4af8-4716-b405-f8951ef619a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BE2C663-E827-4BB5-8E11-07C2EB4228B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4E4A37-E1B6-4827-BF17-1C3BDDCCF882}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Breed List.xlsx
+++ b/Breed List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\PycharmProjects\AutomatedWebTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1BE2E4-03AF-497A-B877-AE830ED68845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03526955-449E-422E-A1BC-567B16BA0A67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -5755,7 +5755,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A2" sqref="A2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5924,8 +5924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4761747-A368-4AFE-A9B1-D379E9C95DCA}">
   <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6430,7 +6430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EFFE78-1A75-4D08-8391-AA6451426A90}">
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -6772,9 +6772,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6924,19 +6927,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9067B0B-AB45-4C12-B4CF-06B50DFDCDD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4E4A37-E1B6-4827-BF17-1C3BDDCCF882}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6960,9 +6959,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4E4A37-E1B6-4827-BF17-1C3BDDCCF882}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9067B0B-AB45-4C12-B4CF-06B50DFDCDD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>